--- a/IOC Calculator.xlsx
+++ b/IOC Calculator.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Legend" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>IP/Domain</t>
   </si>
@@ -58,6 +58,42 @@
   </si>
   <si>
     <t>URL Reverse Report (require an Account</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>The IP or Domain analyzed</t>
+  </si>
+  <si>
+    <t>The VirusTotal "Relations" Tab of the analyzed Domain</t>
+  </si>
+  <si>
+    <t>The "Communicating file" found in "Relations" Tab of VirusTotal, for the analyzed domain</t>
+  </si>
+  <si>
+    <t>The VirusTotal scan page for the analyzed communicating file</t>
+  </si>
+  <si>
+    <t>The data reported on "Communicating Files" table, in the "Relations" Tab, for the analyzed domain</t>
+  </si>
+  <si>
+    <t>Number of engines that found the communicating file malicious</t>
+  </si>
+  <si>
+    <t>Total engines reported on the result page on VirusTotal, for the communicating file analyzed</t>
+  </si>
+  <si>
+    <t>Record of "Contacted IP" table, in the "Relations" Tab, on Communicating file analysis</t>
+  </si>
+  <si>
+    <t>If there are founds on the "Reverse.it" portal, reporting malicious files, then set to "yes"</t>
+  </si>
+  <si>
+    <t>URL of Reverse.it portal, with the evidence the IP is malicious</t>
   </si>
 </sst>
 </file>
@@ -2195,12 +2231,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/IOC Calculator.xlsx
+++ b/IOC Calculator.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>IP/Domain</t>
   </si>
@@ -78,9 +78,6 @@
     <t>The VirusTotal scan page for the analyzed communicating file</t>
   </si>
   <si>
-    <t>The data reported on "Communicating Files" table, in the "Relations" Tab, for the analyzed domain</t>
-  </si>
-  <si>
     <t>Number of engines that found the communicating file malicious</t>
   </si>
   <si>
@@ -94,6 +91,12 @@
   </si>
   <si>
     <t>URL of Reverse.it portal, with the evidence the IP is malicious</t>
+  </si>
+  <si>
+    <t>Indicate if the file analyzed for the domain is an Indicator of Compromise</t>
+  </si>
+  <si>
+    <t>The date reported on "Communicating Files" table, in the "Relations" Tab, for the analyzed domain</t>
   </si>
 </sst>
 </file>
@@ -2231,11 +2234,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2288,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2296,7 +2297,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2304,7 +2305,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2312,7 +2313,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2320,7 +2321,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2328,6 +2329,14 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
     </row>

--- a/IOC Calculator.xlsx
+++ b/IOC Calculator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="19440" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="4" t="str">
-        <f>IF(ISERROR(IF(AND((F2/G2)&lt;=100,(F2/G2)&gt;=80),0,IF(AND((F2/G2)&lt;=79,(F2/G2)&gt;=60),20,IF(AND((F2/G2)&lt;=59,(F2/G2)&gt;=40),40,IF(AND((F2/G2)&lt;=39,(F2/G2)&gt;=20),60,IF(AND((F2/G2)&lt;=19,(F2/G2)&gt;=0),80,100)))))),"",IF(AND((F2/G2)&lt;=100,(F2/G2)&gt;=80),0,IF(AND((F2/G2)&lt;=79,(F2/G2)&gt;=60),20,IF(AND((F2/G2)&lt;=59,(F2/G2)&gt;=40),40,IF(AND((F2/G2)&lt;=39,(F2/G2)&gt;=20),60,IF(AND((F2/G2)&lt;=19,(F2/G2)&gt;=0),80,100))))))</f>
+        <f>IF(ISERROR(F2/G2*100),"",F2/G2*100)</f>
         <v/>
       </c>
       <c r="I2" s="7"/>
@@ -561,7 +561,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H66" si="0">IF(ISERROR(IF(AND((F3/G3)&lt;=100,(F3/G3)&gt;=80),0,IF(AND((F3/G3)&lt;=79,(F3/G3)&gt;=60),20,IF(AND((F3/G3)&lt;=59,(F3/G3)&gt;=40),40,IF(AND((F3/G3)&lt;=39,(F3/G3)&gt;=20),60,IF(AND((F3/G3)&lt;=19,(F3/G3)&gt;=0),80,100)))))),"",IF(AND((F3/G3)&lt;=100,(F3/G3)&gt;=80),0,IF(AND((F3/G3)&lt;=79,(F3/G3)&gt;=60),20,IF(AND((F3/G3)&lt;=59,(F3/G3)&gt;=40),40,IF(AND((F3/G3)&lt;=39,(F3/G3)&gt;=20),60,IF(AND((F3/G3)&lt;=19,(F3/G3)&gt;=0),80,100))))))</f>
+        <f t="shared" ref="H3:H66" si="0">IF(ISERROR(F3/G3*100),"",F3/G3*100)</f>
         <v/>
       </c>
       <c r="L3" s="10">
@@ -1649,7 +1649,7 @@
     </row>
     <row r="67" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H67" s="4" t="str">
-        <f t="shared" ref="H67:H100" si="3">IF(ISERROR(IF(AND((F67/G67)&lt;=100,(F67/G67)&gt;=80),0,IF(AND((F67/G67)&lt;=79,(F67/G67)&gt;=60),20,IF(AND((F67/G67)&lt;=59,(F67/G67)&gt;=40),40,IF(AND((F67/G67)&lt;=39,(F67/G67)&gt;=20),60,IF(AND((F67/G67)&lt;=19,(F67/G67)&gt;=0),80,100)))))),"",IF(AND((F67/G67)&lt;=100,(F67/G67)&gt;=80),0,IF(AND((F67/G67)&lt;=79,(F67/G67)&gt;=60),20,IF(AND((F67/G67)&lt;=59,(F67/G67)&gt;=40),40,IF(AND((F67/G67)&lt;=39,(F67/G67)&gt;=20),60,IF(AND((F67/G67)&lt;=19,(F67/G67)&gt;=0),80,100))))))</f>
+        <f t="shared" ref="H67:H100" si="3">IF(ISERROR(F67/G67*100),"",F67/G67*100)</f>
         <v/>
       </c>
       <c r="L67" s="10">

--- a/IOC Calculator.xlsx
+++ b/IOC Calculator.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>IP/Domain</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>The date reported on "Communicating Files" table, in the "Relations" Tab, for the analyzed domain</t>
+  </si>
+  <si>
+    <t>Last Seen Date</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
     <col min="2" max="2" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.140625" style="3" bestFit="1" customWidth="1"/>
@@ -506,7 +509,7 @@
         <v>12</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>4</v>
@@ -541,7 +544,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="4" t="str">
-        <f>IF(ISERROR(F2/G2*100),"",F2/G2*100)</f>
+        <f>IF(ISERROR(IF(AND((F2/G2)&lt;=100,(F2/G2)&gt;=80),0,IF(AND((F2/G2)&lt;=79,(F2/G2)&gt;=60),20,IF(AND((F2/G2)&lt;=59,(F2/G2)&gt;=40),40,IF(AND((F2/G2)&lt;=39,(F2/G2)&gt;=20),60,IF(AND((F2/G2)&lt;=19,(F2/G2)&gt;=0),80,100)))))),"",IF(AND((F2/G2)&lt;=100,(F2/G2)&gt;=80),0,IF(AND((F2/G2)&lt;=79,(F2/G2)&gt;=60),20,IF(AND((F2/G2)&lt;=59,(F2/G2)&gt;=40),40,IF(AND((F2/G2)&lt;=39,(F2/G2)&gt;=20),60,IF(AND((F2/G2)&lt;=19,(F2/G2)&gt;=0),80,100))))))</f>
         <v/>
       </c>
       <c r="I2" s="7"/>
@@ -561,7 +564,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H66" si="0">IF(ISERROR(F3/G3*100),"",F3/G3*100)</f>
+        <f t="shared" ref="H3:H66" si="0">IF(ISERROR(IF(AND((F3/G3)&lt;=100,(F3/G3)&gt;=80),0,IF(AND((F3/G3)&lt;=79,(F3/G3)&gt;=60),20,IF(AND((F3/G3)&lt;=59,(F3/G3)&gt;=40),40,IF(AND((F3/G3)&lt;=39,(F3/G3)&gt;=20),60,IF(AND((F3/G3)&lt;=19,(F3/G3)&gt;=0),80,100)))))),"",IF(AND((F3/G3)&lt;=100,(F3/G3)&gt;=80),0,IF(AND((F3/G3)&lt;=79,(F3/G3)&gt;=60),20,IF(AND((F3/G3)&lt;=59,(F3/G3)&gt;=40),40,IF(AND((F3/G3)&lt;=39,(F3/G3)&gt;=20),60,IF(AND((F3/G3)&lt;=19,(F3/G3)&gt;=0),80,100))))))</f>
         <v/>
       </c>
       <c r="L3" s="10">
@@ -1649,7 +1652,7 @@
     </row>
     <row r="67" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H67" s="4" t="str">
-        <f t="shared" ref="H67:H100" si="3">IF(ISERROR(F67/G67*100),"",F67/G67*100)</f>
+        <f t="shared" ref="H67:H100" si="3">IF(ISERROR(IF(AND((F67/G67)&lt;=100,(F67/G67)&gt;=80),0,IF(AND((F67/G67)&lt;=79,(F67/G67)&gt;=60),20,IF(AND((F67/G67)&lt;=59,(F67/G67)&gt;=40),40,IF(AND((F67/G67)&lt;=39,(F67/G67)&gt;=20),60,IF(AND((F67/G67)&lt;=19,(F67/G67)&gt;=0),80,100)))))),"",IF(AND((F67/G67)&lt;=100,(F67/G67)&gt;=80),0,IF(AND((F67/G67)&lt;=79,(F67/G67)&gt;=60),20,IF(AND((F67/G67)&lt;=59,(F67/G67)&gt;=40),40,IF(AND((F67/G67)&lt;=39,(F67/G67)&gt;=20),60,IF(AND((F67/G67)&lt;=19,(F67/G67)&gt;=0),80,100))))))</f>
         <v/>
       </c>
       <c r="L67" s="10">
